--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_96.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_96.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,612 +488,674 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04738805970149254</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['E', 'A:min', 'A:min/b7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(68.66, 79.22)]</t>
+          <t>[['G', 'C:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(3.26, 20.1)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:14.868843', '0:00:21.242721')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:12.920000', '0:00:18.540000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2238175675675676</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb', 'Eb', 'Bb']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(122.78, 141.245)]</t>
+          <t>[['D:min/A', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(60.761383, 72.16238)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:02:04.300000', '0:02:09.240000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1169415292353823</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_212</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1333333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(15.78, 21.28)]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:46.932280', '0:00:54.037586')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1169415292353823</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_184</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1893687707641196</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['E', 'A:min', 'G', 'F']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02)]</t>
+          <t>[['F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(18.42, 24.34)]</t>
+          <t>[('0:00:39.201655', '0:00:46.167641')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:31.040000', '0:00:35.040000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07338709677419356</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C', 'C', 'D:7/C']]</t>
-        </is>
+          <t>jaah_42</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_78</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1495901639344262</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'D:maj(*1)/#1', 'E:7']]</t>
+          <t>[['C:7', 'F', 'F'], ['Bb:7', 'Bb:7', 'F']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(217.16, 225.32)]</t>
+          <t>[['F:7', 'Bb', 'Bb'], ['Eb:7', 'Eb:7', 'Bb']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(38.902458, 41.627674)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:41.770000', '0:00:53.980000'), ('0:00:57.650000', '0:01:00.060000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:43.560000', '0:00:48.100000'), ('0:00:28.830000', '0:00:37.660000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1882352941176471</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(111.92, 115.36)]</t>
+          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(19.435, 32.669)]</t>
+          <t>[('0:01:33.100000', '0:01:51.540000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:32.480000', '0:00:45.820000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_39</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1039518900343643</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Db', 'Gb', 'Ab', 'Db']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.625</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.344657, 7.314387)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.656213, 6.319079)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2517482517482518</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.425</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.68, 2.98), (16.26, 19.34)]</t>
+          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(116.66, 121.42), (1.26, 5.92)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:02:14.840000', '0:02:17.480000'), ('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:27.963197', '0:00:34.290634'), ('0:00:28.450816', '0:00:36.229501')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5365853658536586</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(13.74, 16.3)]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(87.66, 96.72)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:02.530000', '0:01:06.230000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_184</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.139751552795031</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A'], ['F#:min', 'B:min', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Eb/5'], ['C:min', 'F:min', 'Bb']]</t>
+          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(57.673129, 63.489727), (27.974807, 36.51975)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(81.397573, 88.735079), (32.484739, 39.764195)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(45.4, 48.12), (98.02, 110.76)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(176.4, 178.86), (21.82, 28.32)]</t>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(24.52, 47.24)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.58, 10.18)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:01.440000', '0:02:10.840000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2517482517482518</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(140.48, 145.98), (1.56, 6.9)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.68, 2.98), (16.26, 19.34)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_209</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_118</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1569230769230769</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E', 'B:min', 'E', 'B:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'E:min', 'A', 'E:min']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(43.942086, 56.364761)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(131.10548, 136.484173)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_44</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:7', 'A:7']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'C:7']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.834399, 15.441292)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(9.516363, 20.393492)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.4211538461538462</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(17.56, 47.24)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(70.38, 90.98)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
